--- a/biology/Histoire de la zoologie et de la botanique/Yves_Bazin_de_Jessey/Yves_Bazin_de_Jessey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Yves_Bazin_de_Jessey/Yves_Bazin_de_Jessey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yves Bazin de Jessey, dit l'abbé Bazin (25 novembre 1803 à Dinan - 26 janvier 1894 à Paris[1]), est un prêtre jésuite et paléozoologue français, spécialiste du Miocène et des faluns de Bretagne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yves Bazin de Jessey, dit l'abbé Bazin (25 novembre 1803 à Dinan - 26 janvier 1894 à Paris), est un prêtre jésuite et paléozoologue français, spécialiste du Miocène et des faluns de Bretagne.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie sommaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été jésuite de 1822 à sa mort, soit pendant 72 ans. Il effectue ses études théologiques chez les Jésuites de Saint-Acheul. Chassé par les Trois Glorieuses, il reçoit l'ordre de se rendre avec d'autres scolastiques de la Compagnie de Jésus à Brigue dans le Valais. Il débute comme professeur, à Bordeaux, de quatrième en 1825-1826, et de troisième en 1826-1827.
 Il est en 1871, l'un des otages de la Commune de Paris.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Sur les Échinides du Miocène moyen de la Bretagne », Bulletin de la Société géologique de France, 3e série, t. XII, p. 34-45, pl. 1-3., 1883.</t>
         </is>
